--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2334,7 +2334,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses CDE enthält das 'bei Geburt zugewiesene Geschlecht' einer Person.</t>
+    <t>Dieses CDE enthält das 'bei Geburt zugewiesene Geschlecht'.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$136</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1427,10 +1427,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1441,6 +1437,13 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>ele-1
@@ -1459,6 +1462,18 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-binary-gender</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1473,9 +1488,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1944,6 +1956,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -2297,7 +2313,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP135"/>
+  <dimension ref="A1:AP136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2331,7 +2347,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
@@ -15188,7 +15204,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>92</v>
@@ -15203,19 +15219,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15252,16 +15268,14 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="AC107" s="2"/>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>456</v>
@@ -15273,7 +15287,7 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>105</v>
@@ -15282,62 +15296,64 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15362,13 +15378,11 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15386,7 +15400,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15395,7 +15409,7 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15404,38 +15418,38 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15450,16 +15464,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15484,40 +15498,40 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y109" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15526,31 +15540,31 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15569,19 +15583,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>490</v>
+        <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15606,13 +15620,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15630,7 +15644,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15648,27 +15662,27 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15679,7 +15693,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15691,18 +15705,20 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>198</v>
+        <v>494</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15726,13 +15742,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15750,13 +15766,13 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>104</v>
@@ -15768,27 +15784,27 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15814,17 +15830,15 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15851,10 +15865,10 @@
         <v>369</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15872,7 +15886,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15890,27 +15904,27 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15933,18 +15947,20 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>517</v>
+        <v>198</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -15968,13 +15984,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -15992,7 +16008,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16004,33 +16020,33 @@
         <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16053,16 +16069,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16112,7 +16128,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16130,27 +16146,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16161,7 +16177,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16173,20 +16189,18 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16234,45 +16248,45 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>540</v>
+        <v>170</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16283,7 +16297,7 @@
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16295,16 +16309,20 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>215</v>
+        <v>539</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>216</v>
+        <v>540</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16352,19 +16370,19 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>218</v>
+        <v>538</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16373,10 +16391,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>113</v>
+        <v>546</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16387,21 +16405,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16413,17 +16431,15 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16460,31 +16476,31 @@
         <v>82</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>82</v>
@@ -16496,7 +16512,7 @@
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16507,14 +16523,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>546</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16527,26 +16543,24 @@
         <v>82</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>547</v>
+        <v>141</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>548</v>
+        <v>221</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O118" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16582,19 +16596,19 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>549</v>
+        <v>222</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16629,44 +16643,46 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M119" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="N119" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16714,19 +16730,19 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>555</v>
+        <v>104</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>556</v>
+        <v>148</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16735,10 +16751,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>558</v>
+        <v>106</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16749,10 +16765,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16775,16 +16791,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16834,19 +16850,19 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI120" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AG120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="AJ120" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -16855,7 +16871,7 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>562</v>
@@ -16895,7 +16911,7 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>198</v>
+        <v>555</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>564</v>
@@ -16904,11 +16920,9 @@
         <v>565</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -16932,13 +16946,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16965,22 +16979,22 @@
         <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>104</v>
+        <v>559</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>105</v>
+        <v>560</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16991,10 +17005,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17005,7 +17019,7 @@
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17020,16 +17034,16 @@
         <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17054,13 +17068,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17078,13 +17092,13 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
@@ -17096,13 +17110,13 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17113,10 +17127,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17127,7 +17141,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17139,19 +17153,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17176,13 +17190,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17200,31 +17214,31 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>585</v>
+        <v>105</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>587</v>
+        <v>491</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17235,10 +17249,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17261,18 +17275,20 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>584</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17320,7 +17336,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17332,7 +17348,7 @@
         <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>105</v>
+        <v>589</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17341,7 +17357,7 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>591</v>
@@ -17369,7 +17385,7 @@
         <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>82</v>
@@ -17378,19 +17394,19 @@
         <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M125" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="N125" t="s" s="2">
-        <v>596</v>
+        <v>259</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17446,13 +17462,13 @@
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>82</v>
@@ -17461,10 +17477,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17475,10 +17491,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17501,16 +17517,16 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17560,7 +17576,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17581,10 +17597,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17595,10 +17611,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17621,20 +17637,18 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>609</v>
-      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17682,7 +17696,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17694,7 +17708,7 @@
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17703,10 +17717,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17717,10 +17731,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17731,7 +17745,7 @@
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
@@ -17740,19 +17754,23 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>215</v>
+        <v>539</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>216</v>
+        <v>610</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17800,19 +17818,19 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>218</v>
+        <v>609</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
@@ -17821,10 +17839,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>82</v>
+        <v>614</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>113</v>
+        <v>615</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17835,21 +17853,21 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -17861,17 +17879,15 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -17908,31 +17924,31 @@
         <v>82</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>82</v>
@@ -17944,7 +17960,7 @@
         <v>82</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -17955,14 +17971,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>546</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -17975,26 +17991,24 @@
         <v>82</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>547</v>
+        <v>141</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>548</v>
+        <v>221</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O130" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18030,19 +18044,19 @@
         <v>82</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>549</v>
+        <v>222</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18077,45 +18091,45 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>616</v>
+        <v>551</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>617</v>
+        <v>552</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>618</v>
+        <v>143</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18140,13 +18154,13 @@
         <v>82</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18164,34 +18178,34 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18199,10 +18213,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18210,7 +18224,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>92</v>
@@ -18225,19 +18239,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>622</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18262,13 +18276,13 @@
         <v>82</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18286,10 +18300,10 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>92</v>
@@ -18307,16 +18321,16 @@
         <v>623</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" hidden="true">
@@ -18344,22 +18358,22 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>198</v>
+        <v>625</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>626</v>
+        <v>458</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>627</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18384,13 +18398,13 @@
         <v>82</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>82</v>
@@ -18417,7 +18431,7 @@
         <v>92</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>105</v>
@@ -18426,38 +18440,38 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>82</v>
+        <v>628</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
@@ -18472,16 +18486,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>479</v>
+        <v>630</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>480</v>
+        <v>631</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>481</v>
+        <v>632</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18506,13 +18520,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18530,16 +18544,16 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>105</v>
@@ -18548,31 +18562,31 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18591,19 +18605,19 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>630</v>
+        <v>483</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>631</v>
+        <v>484</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>539</v>
+        <v>486</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18628,13 +18642,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18652,7 +18666,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18661,32 +18675,154 @@
         <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="AN135" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP135" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AO135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP135" t="s" s="2">
+      <c r="O136" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP136" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP135">
+  <autoFilter ref="A1:AP136">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18696,7 +18832,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI134">
+  <conditionalFormatting sqref="A2:AI135">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$135</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5234" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1190,65 +1190,37 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode</t>
-  </si>
-  <si>
-    <t>SexAssignedAtBirthCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>76689-9</t>
   </si>
   <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:SexAssignedAtBirthCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Sex assigned at birth</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2313,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP136"/>
+  <dimension ref="A1:AP135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12910,7 +12882,7 @@
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -12992,7 +12964,7 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>372</v>
@@ -13270,7 +13242,7 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13328,14 +13300,16 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>230</v>
@@ -13373,48 +13347,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13462,19 +13430,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13483,10 +13451,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13497,21 +13465,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13523,15 +13491,17 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13568,31 +13538,31 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13604,7 +13574,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13615,21 +13585,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13638,27 +13608,29 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13688,31 +13660,31 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13721,10 +13693,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13735,10 +13707,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13746,7 +13718,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>92</v>
@@ -13761,26 +13733,24 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>82</v>
@@ -13822,7 +13792,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13843,10 +13813,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13857,10 +13827,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13868,7 +13838,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -13883,24 +13853,26 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -13942,7 +13914,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13963,10 +13935,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13977,10 +13949,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13988,7 +13960,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>92</v>
@@ -14003,26 +13975,26 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>82</v>
@@ -14064,7 +14036,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14085,10 +14057,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14099,10 +14071,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14125,19 +14097,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14186,7 +14158,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14207,10 +14179,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14221,10 +14193,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14232,13 +14204,13 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14247,19 +14219,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14269,7 +14241,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14308,7 +14280,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14329,10 +14301,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14343,10 +14315,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14369,19 +14341,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14430,7 +14402,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14442,22 +14414,22 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14465,10 +14437,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14479,7 +14451,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14491,20 +14463,18 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O101" t="s" s="2">
         <v>406</v>
       </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14552,13 +14522,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>104</v>
@@ -14567,19 +14537,19 @@
         <v>170</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AO101" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14587,21 +14557,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14613,18 +14583,20 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14672,13 +14644,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>104</v>
@@ -14687,19 +14659,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14707,14 +14679,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14733,19 +14705,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14794,7 +14766,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14806,22 +14778,22 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14829,14 +14801,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14855,20 +14827,18 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O104" t="s" s="2">
         <v>434</v>
       </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14916,7 +14886,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14931,19 +14901,19 @@
         <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -14951,10 +14921,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14965,7 +14935,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14977,18 +14947,20 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15036,22 +15008,22 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -15082,10 +15054,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15097,16 +15069,16 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>451</v>
@@ -15146,16 +15118,14 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>447</v>
@@ -15164,41 +15134,43 @@
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>104</v>
+        <v>454</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15210,7 +15182,7 @@
         <v>92</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>82</v>
@@ -15222,16 +15194,16 @@
         <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15256,29 +15228,29 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15287,7 +15259,7 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>105</v>
@@ -15296,64 +15268,62 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15378,38 +15348,40 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI108" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="Y108" s="2"/>
-      <c r="Z108" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15418,19 +15390,19 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
@@ -15442,14 +15414,14 @@
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15464,16 +15436,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15498,13 +15470,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15528,10 +15500,10 @@
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>479</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15540,31 +15512,31 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>106</v>
+        <v>481</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15583,19 +15555,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>198</v>
+        <v>485</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15620,13 +15592,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15644,7 +15616,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15662,7 +15634,7 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>490</v>
@@ -15674,15 +15646,15 @@
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15693,7 +15665,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15705,20 +15677,18 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15742,13 +15712,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15766,13 +15736,13 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>104</v>
@@ -15784,7 +15754,7 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>499</v>
@@ -15796,15 +15766,15 @@
         <v>82</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>82</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15830,15 +15800,17 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15865,10 +15837,10 @@
         <v>369</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15886,7 +15858,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15904,19 +15876,19 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" hidden="true">
@@ -15947,20 +15919,18 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>198</v>
+        <v>512</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O113" t="s" s="2">
         <v>515</v>
       </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -15984,13 +15954,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16020,25 +15990,25 @@
         <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="114" hidden="true">
@@ -16177,7 +16147,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16200,7 +16170,9 @@
       <c r="N115" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="O115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16254,31 +16226,31 @@
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -16297,7 +16269,7 @@
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16309,20 +16281,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>539</v>
+        <v>215</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>540</v>
+        <v>216</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16370,19 +16338,19 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>538</v>
+        <v>218</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16391,10 +16359,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>546</v>
+        <v>113</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16405,21 +16373,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16431,15 +16399,17 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16476,31 +16446,31 @@
         <v>82</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>82</v>
@@ -16512,7 +16482,7 @@
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16523,14 +16493,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>139</v>
+        <v>541</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16543,24 +16513,26 @@
         <v>82</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>141</v>
+        <v>542</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>221</v>
+        <v>543</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16596,19 +16568,19 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>222</v>
+        <v>544</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16643,46 +16615,44 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>140</v>
+        <v>546</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16730,31 +16700,31 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16791,16 +16761,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="N120" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16859,10 +16829,10 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -16871,10 +16841,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16885,10 +16855,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16911,18 +16881,20 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>555</v>
+        <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -16946,13 +16918,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16970,7 +16942,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16979,22 +16951,22 @@
         <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>559</v>
+        <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>560</v>
+        <v>105</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>566</v>
+        <v>482</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17019,7 +16991,7 @@
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17068,7 +17040,7 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="Y122" t="s" s="2">
         <v>572</v>
@@ -17098,7 +17070,7 @@
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
@@ -17110,13 +17082,13 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17127,10 +17099,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17141,7 +17113,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17153,19 +17125,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>198</v>
+        <v>575</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17190,13 +17162,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17214,31 +17186,31 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>105</v>
+        <v>580</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17275,20 +17247,18 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M124" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="N124" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17348,7 +17318,7 @@
         <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>589</v>
+        <v>105</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17357,10 +17327,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17371,10 +17341,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17385,7 +17355,7 @@
         <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>82</v>
@@ -17394,19 +17364,19 @@
         <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>215</v>
+        <v>588</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>259</v>
+        <v>591</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17456,19 +17426,19 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>82</v>
@@ -17477,10 +17447,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17491,10 +17461,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17517,16 +17487,16 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17576,7 +17546,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17597,10 +17567,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17611,10 +17581,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17637,18 +17607,20 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O127" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L127" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17696,7 +17668,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17708,7 +17680,7 @@
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17717,10 +17689,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17731,10 +17703,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17745,7 +17717,7 @@
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
@@ -17754,23 +17726,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>539</v>
+        <v>215</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>610</v>
+        <v>216</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17818,19 +17786,19 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>218</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
@@ -17839,10 +17807,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>614</v>
+        <v>82</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>615</v>
+        <v>113</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17853,21 +17821,21 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -17879,15 +17847,17 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -17924,31 +17894,31 @@
         <v>82</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>82</v>
@@ -17960,7 +17930,7 @@
         <v>82</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -17971,14 +17941,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>139</v>
+        <v>541</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -17991,24 +17961,26 @@
         <v>82</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>141</v>
+        <v>542</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>221</v>
+        <v>543</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18044,19 +18016,19 @@
         <v>82</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>222</v>
+        <v>544</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18091,45 +18063,45 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>143</v>
+        <v>613</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18154,13 +18126,13 @@
         <v>82</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18178,34 +18150,34 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>82</v>
+        <v>614</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18213,10 +18185,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18224,7 +18196,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>92</v>
@@ -18239,19 +18211,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>198</v>
+        <v>616</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>621</v>
+        <v>449</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18276,13 +18248,13 @@
         <v>82</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18300,10 +18272,10 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>92</v>
@@ -18318,27 +18290,27 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18358,22 +18330,22 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>625</v>
+        <v>198</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>458</v>
+        <v>622</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18398,13 +18370,13 @@
         <v>82</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>82</v>
@@ -18422,7 +18394,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18431,7 +18403,7 @@
         <v>92</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>104</v>
+        <v>470</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>105</v>
@@ -18440,38 +18412,38 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
@@ -18486,16 +18458,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>630</v>
+        <v>474</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>631</v>
+        <v>475</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>632</v>
+        <v>476</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18520,13 +18492,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18544,16 +18516,16 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>479</v>
+        <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>105</v>
@@ -18562,31 +18534,31 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>106</v>
+        <v>481</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18605,19 +18577,19 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>483</v>
+        <v>626</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>484</v>
+        <v>627</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18642,13 +18614,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18666,7 +18638,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18675,154 +18647,32 @@
         <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP136" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP136">
+  <autoFilter ref="A1:AP135">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18832,7 +18682,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI134">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5195" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1399,10 +1399,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1413,6 +1409,10 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
   </si>
   <si>
     <t>ele-1
@@ -1916,6 +1916,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -15038,13 +15042,13 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>82</v>
@@ -15053,19 +15057,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15102,16 +15106,14 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>447</v>
@@ -18075,19 +18077,19 @@
         <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>448</v>
+        <v>612</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18154,7 +18156,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>455</v>
@@ -18171,10 +18173,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18200,13 +18202,13 @@
         <v>198</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>462</v>
@@ -18258,7 +18260,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18293,10 +18295,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18380,7 +18382,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18415,10 +18417,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18444,10 +18446,10 @@
         <v>83</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>529</v>
@@ -18502,7 +18504,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5195" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -1181,48 +1178,6 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>76689-9</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Sex assigned at birth</t>
-  </si>
-  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -1399,6 +1354,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1409,10 +1368,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
   </si>
   <si>
     <t>ele-1
@@ -1916,10 +1871,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -2273,7 +2224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP134"/>
+  <dimension ref="A1:AP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2310,7 +2261,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4100,10 +4051,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4127,13 +4078,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4141,13 +4092,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4251,13 +4202,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4265,10 +4216,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4291,13 +4242,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4348,7 +4299,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4383,10 +4334,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4415,7 +4366,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4468,7 +4419,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4503,10 +4454,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4529,19 +4480,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4590,7 +4541,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4611,10 +4562,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4625,10 +4576,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4651,13 +4602,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4708,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4743,10 +4694,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4775,7 +4726,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4828,7 +4779,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4863,10 +4814,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4892,65 +4843,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4971,10 +4922,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4985,10 +4936,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5011,16 +4962,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5070,7 +5021,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5091,10 +5042,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5105,10 +5056,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5134,65 +5085,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5213,10 +5164,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5227,10 +5178,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5253,19 +5204,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5314,7 +5265,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5335,10 +5286,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5349,10 +5300,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5375,19 +5326,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5436,7 +5387,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5457,10 +5408,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5471,10 +5422,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5497,19 +5448,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5558,7 +5509,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5579,10 +5530,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5593,13 +5544,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5703,13 +5654,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5717,10 +5668,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5743,13 +5694,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5800,7 +5751,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5835,10 +5786,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5867,7 +5818,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5920,7 +5871,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5955,10 +5906,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5981,19 +5932,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6042,7 +5993,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6063,10 +6014,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6077,10 +6028,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6103,13 +6054,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6160,7 +6111,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6195,10 +6146,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6227,7 +6178,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6280,7 +6231,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6315,10 +6266,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6344,23 +6295,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6402,7 +6353,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6423,10 +6374,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6437,10 +6388,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6463,16 +6414,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6522,7 +6473,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6543,10 +6494,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6557,10 +6508,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6586,23 +6537,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6644,7 +6595,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6665,10 +6616,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6679,10 +6630,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6705,19 +6656,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6766,7 +6717,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6787,10 +6738,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6801,10 +6752,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6827,19 +6778,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6888,7 +6839,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6909,10 +6860,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6923,10 +6874,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6949,19 +6900,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7010,7 +6961,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7031,10 +6982,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7045,13 +6996,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7155,13 +7106,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7169,10 +7120,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7195,13 +7146,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7252,7 +7203,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7287,10 +7238,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7319,7 +7270,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7372,7 +7323,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7407,10 +7358,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7433,19 +7384,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7494,7 +7445,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7515,10 +7466,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7529,10 +7480,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7555,13 +7506,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7612,7 +7563,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7647,10 +7598,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7679,7 +7630,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7732,7 +7683,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7767,10 +7718,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7796,23 +7747,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7854,7 +7805,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7875,10 +7826,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7889,10 +7840,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7915,16 +7866,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7974,7 +7925,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7995,10 +7946,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8009,10 +7960,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8038,23 +7989,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8096,7 +8047,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8117,10 +8068,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8131,10 +8082,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8157,19 +8108,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8218,7 +8169,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8239,10 +8190,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8253,10 +8204,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8279,19 +8230,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8340,7 +8291,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8361,10 +8312,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8375,10 +8326,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8401,19 +8352,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8462,7 +8413,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8483,10 +8434,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8497,13 +8448,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8607,13 +8558,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8621,10 +8572,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8647,13 +8598,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8704,7 +8655,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8739,10 +8690,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8771,7 +8722,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8824,7 +8775,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8859,10 +8810,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8885,19 +8836,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8946,7 +8897,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8967,10 +8918,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8981,10 +8932,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9007,13 +8958,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9064,7 +9015,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9099,10 +9050,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9131,7 +9082,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9184,7 +9135,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9219,10 +9170,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9248,23 +9199,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9306,7 +9257,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9327,10 +9278,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9341,10 +9292,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9367,16 +9318,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9426,7 +9377,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9447,10 +9398,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9461,10 +9412,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9490,23 +9441,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9548,7 +9499,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9569,10 +9520,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9583,10 +9534,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9609,19 +9560,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9670,7 +9621,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9691,10 +9642,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9705,10 +9656,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9731,19 +9682,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9792,7 +9743,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9813,10 +9764,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9827,10 +9778,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9853,19 +9804,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9914,7 +9865,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9935,10 +9886,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9949,13 +9900,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10059,13 +10010,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10073,10 +10024,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10099,13 +10050,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10156,7 +10107,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10191,10 +10142,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10223,7 +10174,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10276,7 +10227,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10311,10 +10262,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10337,19 +10288,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10398,7 +10349,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10419,10 +10370,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10433,10 +10384,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10459,13 +10410,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10516,7 +10467,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10551,10 +10502,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10583,7 +10534,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10636,7 +10587,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10671,10 +10622,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10700,23 +10651,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10758,7 +10709,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10779,10 +10730,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10793,10 +10744,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10819,16 +10770,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10878,7 +10829,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10899,10 +10850,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10913,10 +10864,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10942,23 +10893,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11000,7 +10951,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11021,10 +10972,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11035,10 +10986,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11061,19 +11012,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11122,7 +11073,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11143,10 +11094,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11157,10 +11108,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11183,19 +11134,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11244,7 +11195,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11265,10 +11216,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11279,10 +11230,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11305,19 +11256,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11366,7 +11317,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11387,10 +11338,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11401,13 +11352,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11511,13 +11462,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11525,10 +11476,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11551,13 +11502,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11608,7 +11559,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11643,10 +11594,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11675,7 +11626,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11728,7 +11679,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11763,10 +11714,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11789,19 +11740,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11850,7 +11801,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11871,10 +11822,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11885,10 +11836,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11911,13 +11862,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11968,7 +11919,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12003,10 +11954,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12035,7 +11986,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12088,7 +12039,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12123,10 +12074,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12152,23 +12103,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12210,7 +12161,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12231,10 +12182,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12245,10 +12196,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12271,16 +12222,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12330,7 +12281,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12351,10 +12302,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12365,10 +12316,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12394,23 +12345,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12452,7 +12403,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12473,10 +12424,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12487,10 +12438,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12513,19 +12464,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12574,7 +12525,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12595,10 +12546,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12609,10 +12560,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12635,19 +12586,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12696,7 +12647,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12717,10 +12668,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12731,10 +12682,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12757,19 +12708,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12818,7 +12769,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12839,10 +12790,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12853,14 +12804,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12870,7 +12821,7 @@
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -12882,16 +12833,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12916,14 +12867,14 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12940,7 +12891,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -12955,30 +12906,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AO88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12998,19 +12949,23 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>216</v>
+        <v>379</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13058,7 +13013,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13067,25 +13022,25 @@
         <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13093,14 +13048,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13116,19 +13071,19 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>388</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13166,19 +13121,19 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13190,7 +13145,7 @@
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13199,13 +13154,13 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13213,24 +13168,24 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13239,19 +13194,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>226</v>
+        <v>396</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13300,34 +13255,34 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>393</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>232</v>
+        <v>402</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13335,14 +13290,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13358,19 +13313,23 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13418,7 +13377,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13427,25 +13386,25 @@
         <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13453,21 +13412,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13476,19 +13435,19 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>141</v>
+        <v>417</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>221</v>
+        <v>418</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13526,31 +13485,31 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>415</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13559,13 +13518,13 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13573,10 +13532,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13584,10 +13543,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13599,26 +13558,26 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>424</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>239</v>
+        <v>425</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>240</v>
+        <v>426</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>242</v>
+        <v>427</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13660,34 +13619,34 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>423</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>82</v>
@@ -13695,10 +13654,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13721,18 +13680,20 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>215</v>
+        <v>433</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>249</v>
+        <v>434</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13780,7 +13741,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13789,7 +13750,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13798,27 +13759,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>253</v>
+        <v>440</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>254</v>
+        <v>441</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13826,7 +13787,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -13838,29 +13799,29 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>257</v>
+        <v>444</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>258</v>
+        <v>445</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>259</v>
+        <v>446</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>260</v>
+        <v>447</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -13878,13 +13839,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13902,7 +13863,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>262</v>
+        <v>443</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13911,7 +13872,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>451</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13923,10 +13884,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13937,21 +13898,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13960,22 +13921,22 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
+        <v>456</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14000,13 +13961,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14024,13 +13985,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>270</v>
+        <v>453</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
@@ -14042,27 +14003,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>271</v>
+        <v>462</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>272</v>
+        <v>463</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14073,7 +14034,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14082,22 +14043,22 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>275</v>
+        <v>466</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>277</v>
+        <v>468</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>278</v>
+        <v>469</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>279</v>
+        <v>470</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14146,13 +14107,13 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>280</v>
+        <v>465</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
@@ -14167,10 +14128,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>281</v>
+        <v>471</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>282</v>
+        <v>472</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14181,10 +14142,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14192,35 +14153,33 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
+        <v>474</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>286</v>
+        <v>475</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14229,7 +14188,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14244,13 +14203,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14268,7 +14227,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>289</v>
+        <v>473</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14286,27 +14245,27 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>291</v>
+        <v>481</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14326,22 +14285,22 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>393</v>
+        <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>394</v>
+        <v>484</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>395</v>
+        <v>485</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>397</v>
+        <v>487</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14366,13 +14325,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14390,7 +14349,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14402,22 +14361,22 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>399</v>
+        <v>490</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>400</v>
+        <v>491</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14425,10 +14384,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>402</v>
+        <v>492</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>402</v>
+        <v>492</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14439,7 +14398,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14448,19 +14407,19 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>403</v>
+        <v>493</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>404</v>
+        <v>494</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>405</v>
+        <v>495</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14510,13 +14469,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>402</v>
+        <v>492</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>104</v>
@@ -14528,31 +14487,31 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14568,23 +14527,21 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14632,7 +14589,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14647,41 +14604,41 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>416</v>
+        <v>507</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
@@ -14690,22 +14647,22 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>421</v>
+        <v>511</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>422</v>
+        <v>512</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>423</v>
+        <v>513</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>424</v>
+        <v>514</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>425</v>
+        <v>515</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14754,34 +14711,34 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>105</v>
+        <v>516</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14789,10 +14746,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14812,20 +14769,18 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>431</v>
+        <v>214</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14874,7 +14829,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>430</v>
+        <v>217</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14883,10 +14838,10 @@
         <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -14895,13 +14850,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>436</v>
+        <v>113</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -14909,14 +14864,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14932,23 +14887,21 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>439</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>441</v>
+        <v>220</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -14984,19 +14937,19 @@
         <v>82</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>438</v>
+        <v>221</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15008,22 +14961,22 @@
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>445</v>
+        <v>106</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15031,45 +14984,45 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>450</v>
+        <v>143</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>451</v>
+        <v>152</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15106,55 +15059,57 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AC106" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15177,20 +15132,18 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>198</v>
+        <v>527</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15214,13 +15167,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15238,7 +15191,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15247,10 +15200,10 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>105</v>
+        <v>532</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15259,10 +15212,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>106</v>
+        <v>533</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15273,21 +15226,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15299,20 +15252,18 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>198</v>
+        <v>527</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15336,13 +15287,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15360,45 +15311,45 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>104</v>
+        <v>531</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>532</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15409,7 +15360,7 @@
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15421,19 +15372,19 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15458,13 +15409,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15482,13 +15433,13 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>104</v>
@@ -15500,13 +15451,13 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15517,10 +15468,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15531,7 +15482,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15546,15 +15497,17 @@
         <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15578,13 +15531,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15602,13 +15555,13 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>104</v>
@@ -15620,27 +15573,27 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15663,19 +15616,19 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>198</v>
+        <v>556</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15700,13 +15653,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15724,7 +15677,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15736,7 +15689,7 @@
         <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>105</v>
+        <v>561</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15745,10 +15698,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15759,10 +15712,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15785,16 +15738,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>508</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>511</v>
+        <v>258</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15844,7 +15797,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15856,33 +15809,33 @@
         <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15893,7 +15846,7 @@
         <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
@@ -15902,19 +15855,19 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15964,13 +15917,13 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>104</v>
@@ -15982,27 +15935,27 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16022,23 +15975,21 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16086,7 +16037,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16098,7 +16049,7 @@
         <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>531</v>
+        <v>170</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16107,10 +16058,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16121,10 +16072,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16135,7 +16086,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16144,19 +16095,23 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>216</v>
+        <v>582</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16204,19 +16159,19 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>218</v>
+        <v>581</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -16225,10 +16180,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>113</v>
+        <v>587</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16239,21 +16194,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16265,17 +16220,15 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16312,31 +16265,31 @@
         <v>82</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16348,7 +16301,7 @@
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16359,14 +16312,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>537</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16379,26 +16332,24 @@
         <v>82</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>538</v>
+        <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>539</v>
+        <v>220</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O117" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16434,19 +16385,19 @@
         <v>82</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>540</v>
+        <v>221</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16481,44 +16432,46 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>542</v>
+        <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16566,19 +16519,19 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>546</v>
+        <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>547</v>
+        <v>148</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16587,10 +16540,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>549</v>
+        <v>106</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16601,10 +16554,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16612,7 +16565,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>92</v>
@@ -16624,21 +16577,23 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>542</v>
+        <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16662,13 +16617,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16686,34 +16641,34 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>546</v>
+        <v>104</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>547</v>
+        <v>105</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>548</v>
+        <v>373</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>553</v>
+        <v>374</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -16721,10 +16676,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16744,22 +16699,22 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>556</v>
+        <v>435</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>558</v>
+        <v>437</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16784,13 +16739,13 @@
         <v>82</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>559</v>
+        <v>82</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16808,7 +16763,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16826,27 +16781,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16857,7 +16812,7 @@
         <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -16872,16 +16827,16 @@
         <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -16906,13 +16861,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>568</v>
+        <v>449</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>569</v>
+        <v>450</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16930,16 +16885,16 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>104</v>
+        <v>451</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>105</v>
@@ -16948,13 +16903,13 @@
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>562</v>
+        <v>106</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16965,21 +16920,21 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -16991,19 +16946,19 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>571</v>
+        <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>572</v>
+        <v>455</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>573</v>
+        <v>456</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>574</v>
+        <v>457</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>575</v>
+        <v>458</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17028,13 +16983,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17052,45 +17007,45 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>576</v>
+        <v>105</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>577</v>
+        <v>462</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>578</v>
+        <v>463</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17101,7 +17056,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17113,18 +17068,20 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17172,19 +17129,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17193,1352 +17150,20 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP124" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP131" t="s" s="2">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="P132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP133" t="s" s="2">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP134" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP134">
+  <autoFilter ref="A1:AP123">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18548,7 +17173,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI133">
+  <conditionalFormatting sqref="A2:AI122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8712" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8711" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1939,6 +1939,9 @@
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-biological-gender</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2720,7 +2723,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.8984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
@@ -18651,13 +18654,11 @@
         <v>82</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y132" s="2"/>
       <c r="Z132" t="s" s="2">
-        <v>82</v>
+        <v>619</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18693,7 +18694,7 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>456</v>
@@ -18710,10 +18711,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18739,13 +18740,13 @@
         <v>198</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>465</v>
@@ -18797,7 +18798,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18832,10 +18833,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18919,7 +18920,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18954,10 +18955,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18983,10 +18984,10 @@
         <v>83</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>532</v>
@@ -19041,7 +19042,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19076,13 +19077,13 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>599</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19200,7 +19201,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>608</v>
@@ -19318,7 +19319,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>609</v>
@@ -19438,7 +19439,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>610</v>
@@ -19560,14 +19561,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>611</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19589,13 +19590,13 @@
         <v>198</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>368</v>
@@ -19682,10 +19683,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19800,10 +19801,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19920,10 +19921,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19931,7 +19932,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>81</v>
@@ -19995,7 +19996,7 @@
         <v>82</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AC143" s="2"/>
       <c r="AD143" t="s" s="2">
@@ -20040,13 +20041,13 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
@@ -20164,10 +20165,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20282,10 +20283,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20402,10 +20403,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20524,10 +20525,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20644,10 +20645,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20689,7 +20690,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>82</v>
@@ -20766,10 +20767,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20888,10 +20889,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21010,13 +21011,13 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>82</v>
@@ -21134,10 +21135,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21252,10 +21253,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21372,10 +21373,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21417,7 +21418,7 @@
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>82</v>
@@ -21494,10 +21495,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21614,10 +21615,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21659,7 +21660,7 @@
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
@@ -21736,10 +21737,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21858,10 +21859,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21980,13 +21981,13 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>82</v>
@@ -22104,10 +22105,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22226,7 +22227,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>616</v>
@@ -22331,7 +22332,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>456</v>
@@ -22348,10 +22349,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22377,13 +22378,13 @@
         <v>198</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>465</v>
@@ -22435,7 +22436,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22470,10 +22471,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22557,7 +22558,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22592,10 +22593,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22621,10 +22622,10 @@
         <v>83</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>532</v>
@@ -22679,7 +22680,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22714,13 +22715,13 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>599</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>82</v>
@@ -22838,7 +22839,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>608</v>
@@ -22956,7 +22957,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>609</v>
@@ -23076,7 +23077,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>610</v>
@@ -23198,14 +23199,14 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>611</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -23227,13 +23228,13 @@
         <v>198</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>368</v>
@@ -23320,10 +23321,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23438,10 +23439,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23558,10 +23559,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23569,7 +23570,7 @@
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>81</v>
@@ -23633,7 +23634,7 @@
         <v>82</v>
       </c>
       <c r="AB173" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AC173" s="2"/>
       <c r="AD173" t="s" s="2">
@@ -23678,13 +23679,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>82</v>
@@ -23802,10 +23803,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23920,10 +23921,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24040,10 +24041,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24162,10 +24163,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24282,10 +24283,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24327,7 +24328,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>82</v>
@@ -24404,10 +24405,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24526,10 +24527,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24648,13 +24649,13 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>82</v>
@@ -24772,10 +24773,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24890,10 +24891,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25010,10 +25011,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25055,7 +25056,7 @@
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>82</v>
@@ -25132,10 +25133,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25252,10 +25253,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25297,7 +25298,7 @@
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="S187" t="s" s="2">
         <v>82</v>
@@ -25374,10 +25375,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25496,10 +25497,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25618,13 +25619,13 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>82</v>
@@ -25742,10 +25743,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25864,7 +25865,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>616</v>
@@ -25969,7 +25970,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>456</v>
@@ -25986,10 +25987,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26015,13 +26016,13 @@
         <v>198</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>465</v>
@@ -26073,7 +26074,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26108,10 +26109,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26195,7 +26196,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26230,10 +26231,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26259,10 +26260,10 @@
         <v>83</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N195" t="s" s="2">
         <v>532</v>
@@ -26317,7 +26318,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26352,13 +26353,13 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>599</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>82</v>
@@ -26476,7 +26477,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>608</v>
@@ -26594,7 +26595,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>609</v>
@@ -26714,7 +26715,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>610</v>
@@ -26836,14 +26837,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>611</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -26865,13 +26866,13 @@
         <v>198</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>368</v>
@@ -26958,10 +26959,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27076,10 +27077,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27196,10 +27197,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27207,7 +27208,7 @@
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G203" t="s" s="2">
         <v>81</v>
@@ -27271,7 +27272,7 @@
         <v>82</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AC203" s="2"/>
       <c r="AD203" t="s" s="2">
@@ -27316,13 +27317,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>82</v>
@@ -27440,10 +27441,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27558,10 +27559,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27678,10 +27679,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27800,10 +27801,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27920,10 +27921,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27965,7 +27966,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>82</v>
@@ -28042,10 +28043,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28164,10 +28165,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28286,13 +28287,13 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>82</v>
@@ -28410,10 +28411,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28528,10 +28529,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28648,10 +28649,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28693,7 +28694,7 @@
       </c>
       <c r="Q215" s="2"/>
       <c r="R215" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="S215" t="s" s="2">
         <v>82</v>
@@ -28770,10 +28771,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28890,10 +28891,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28935,7 +28936,7 @@
       </c>
       <c r="Q217" s="2"/>
       <c r="R217" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>82</v>
@@ -29012,10 +29013,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29134,10 +29135,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29256,13 +29257,13 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>82</v>
@@ -29380,10 +29381,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29502,7 +29503,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>616</v>
@@ -29607,7 +29608,7 @@
         <v>82</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>456</v>
@@ -29624,10 +29625,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29653,13 +29654,13 @@
         <v>198</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>465</v>
@@ -29711,7 +29712,7 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -29746,10 +29747,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29833,7 +29834,7 @@
         <v>82</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -29868,10 +29869,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29897,10 +29898,10 @@
         <v>83</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N225" t="s" s="2">
         <v>532</v>
@@ -29955,7 +29956,7 @@
         <v>82</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$234</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8711" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9047" uniqueCount="780">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1990,8 +1990,8 @@
     <t>Observation.component:male.code</t>
   </si>
   <si>
-    <t>masculine
-männlich</t>
+    <t>Masculine
+Männlich</t>
   </si>
   <si>
     <t>Male sex</t>
@@ -2127,6 +2127,43 @@
     <t>Observation.component:male.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Observation.component:male.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.value[x].value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t>Primitive value for integer</t>
+  </si>
+  <si>
+    <t>Internal coding of German Center for Diabetes Research (DZD)</t>
+  </si>
+  <si>
+    <t>-2147483648</t>
+  </si>
+  <si>
+    <t>2147483647</t>
+  </si>
+  <si>
+    <t>integer.value</t>
+  </si>
+  <si>
     <t>Observation.component:male.dataAbsentReason</t>
   </si>
   <si>
@@ -2154,8 +2191,8 @@
     <t>Observation.component:female.code</t>
   </si>
   <si>
-    <t>feminine
-weiblich</t>
+    <t>Feminine
+Weiblich</t>
   </si>
   <si>
     <t>Female sex</t>
@@ -2245,6 +2282,18 @@
     <t>Observation.component:female.value[x]</t>
   </si>
   <si>
+    <t>Observation.component:female.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component:female.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component:female.value[x].value</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Observation.component:female.dataAbsentReason</t>
   </si>
   <si>
@@ -2272,8 +2321,8 @@
     <t>Observation.component:intersex.code</t>
   </si>
   <si>
-    <t>non-binary
-divers</t>
+    <t>Non-binary
+Divers</t>
   </si>
   <si>
     <t>Intersex</t>
@@ -2361,6 +2410,15 @@
   </si>
   <si>
     <t>Observation.component:intersex.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:intersex.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component:intersex.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component:intersex.value[x].value</t>
   </si>
   <si>
     <t>Observation.component:intersex.dataAbsentReason</t>
@@ -2689,7 +2747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP225"/>
+  <dimension ref="A1:AP234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -22244,7 +22302,7 @@
         <v>92</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>82</v>
@@ -22253,7 +22311,7 @@
         <v>93</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>448</v>
+        <v>680</v>
       </c>
       <c r="L162" t="s" s="2">
         <v>617</v>
@@ -22349,10 +22407,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>621</v>
+        <v>682</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22375,20 +22433,16 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>622</v>
+        <v>216</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
@@ -22412,13 +22466,13 @@
         <v>82</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -22436,7 +22490,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>621</v>
+        <v>218</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22445,10 +22499,10 @@
         <v>92</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>82</v>
@@ -22457,10 +22511,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>470</v>
+        <v>113</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22471,14 +22525,14 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>625</v>
+        <v>684</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>472</v>
+        <v>139</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -22497,20 +22551,18 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>473</v>
+        <v>141</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>474</v>
+        <v>221</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -22534,31 +22586,31 @@
         <v>82</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB164" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC164" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>625</v>
+        <v>222</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22570,33 +22622,33 @@
         <v>104</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>481</v>
+        <v>106</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP164" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22607,7 +22659,7 @@
         <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22619,20 +22671,16 @@
         <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>83</v>
+        <v>680</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22641,16 +22689,16 @@
         <v>82</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="U165" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="V165" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="W165" t="s" s="2">
         <v>82</v>
@@ -22680,13 +22728,13 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>626</v>
+        <v>691</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>82</v>
@@ -22701,10 +22749,10 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22715,14 +22763,12 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
         <v>82</v>
       </c>
@@ -22731,7 +22777,7 @@
         <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>82</v>
@@ -22740,22 +22786,22 @@
         <v>82</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>529</v>
+        <v>198</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>603</v>
+        <v>465</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22780,13 +22826,13 @@
         <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22804,19 +22850,19 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>82</v>
@@ -22825,10 +22871,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>606</v>
+        <v>106</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>607</v>
+        <v>470</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22839,21 +22885,21 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>82</v>
@@ -22865,16 +22911,20 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>216</v>
+        <v>473</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
       </c>
@@ -22898,13 +22948,13 @@
         <v>82</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -22922,49 +22972,49 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>218</v>
+        <v>625</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>113</v>
+        <v>481</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP167" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
@@ -22983,18 +23033,20 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>141</v>
+        <v>627</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>221</v>
+        <v>628</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O168" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
@@ -23030,19 +23082,19 @@
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC168" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>222</v>
+        <v>626</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23051,10 +23103,10 @@
         <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
@@ -23063,10 +23115,10 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>106</v>
+        <v>536</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -23077,14 +23129,16 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C169" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="D169" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23097,25 +23151,25 @@
         <v>82</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>140</v>
+        <v>529</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>143</v>
+        <v>602</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>152</v>
+        <v>603</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23164,7 +23218,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23176,7 +23230,7 @@
         <v>104</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>82</v>
@@ -23185,10 +23239,10 @@
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23199,18 +23253,18 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>689</v>
+        <v>82</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>92</v>
@@ -23222,23 +23276,19 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>690</v>
+        <v>216</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23262,13 +23312,13 @@
         <v>82</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -23286,16 +23336,16 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>611</v>
+        <v>218</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>82</v>
@@ -23304,16 +23354,16 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23321,21 +23371,21 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>82</v>
@@ -23347,15 +23397,17 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N171" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23392,31 +23444,31 @@
         <v>82</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -23428,7 +23480,7 @@
         <v>82</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23439,14 +23491,14 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>139</v>
+        <v>540</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -23459,24 +23511,26 @@
         <v>82</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>141</v>
+        <v>541</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>221</v>
+        <v>542</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O172" s="2"/>
+      <c r="O172" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
@@ -23512,19 +23566,19 @@
         <v>82</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC172" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>222</v>
+        <v>543</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23559,21 +23613,21 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>82</v>
+        <v>701</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>645</v>
+        <v>92</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>82</v>
@@ -23585,19 +23639,19 @@
         <v>93</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>226</v>
+        <v>702</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>227</v>
+        <v>703</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>228</v>
+        <v>638</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23622,56 +23676,58 @@
         <v>82</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB173" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AC173" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>230</v>
+        <v>611</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23679,48 +23735,42 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
         <v>82</v>
       </c>
@@ -23768,19 +23818,19 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
@@ -23789,10 +23839,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23803,21 +23853,21 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>82</v>
@@ -23829,15 +23879,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N175" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23874,31 +23926,31 @@
         <v>82</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>82</v>
@@ -23910,7 +23962,7 @@
         <v>82</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23921,18 +23973,18 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>80</v>
+        <v>645</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>81</v>
@@ -23944,21 +23996,23 @@
         <v>82</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O176" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
       </c>
@@ -23994,11 +24048,9 @@
         <v>82</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="AC176" s="2"/>
       <c r="AD176" t="s" s="2">
         <v>82</v>
       </c>
@@ -24006,7 +24058,7 @@
         <v>146</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24018,7 +24070,7 @@
         <v>104</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>82</v>
@@ -24027,10 +24079,10 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -24041,24 +24093,26 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C177" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="D177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>82</v>
@@ -24067,26 +24121,26 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>82</v>
@@ -24128,13 +24182,13 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>104</v>
@@ -24149,10 +24203,10 @@
         <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -24163,10 +24217,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24186,20 +24240,18 @@
         <v>82</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24248,7 +24300,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24257,10 +24309,10 @@
         <v>92</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>82</v>
@@ -24269,10 +24321,10 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24283,21 +24335,21 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>82</v>
@@ -24306,29 +24358,27 @@
         <v>82</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>702</v>
+        <v>82</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>82</v>
@@ -24358,31 +24408,31 @@
         <v>82</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>82</v>
@@ -24391,10 +24441,10 @@
         <v>82</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
@@ -24405,10 +24455,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24431,26 +24481,26 @@
         <v>93</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24492,7 +24542,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24513,10 +24563,10 @@
         <v>82</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>82</v>
@@ -24527,10 +24577,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24553,20 +24603,18 @@
         <v>93</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>82</v>
       </c>
@@ -24614,7 +24662,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24635,10 +24683,10 @@
         <v>82</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>82</v>
@@ -24649,14 +24697,12 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C182" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
         <v>82</v>
       </c>
@@ -24668,7 +24714,7 @@
         <v>92</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>82</v>
@@ -24677,26 +24723,26 @@
         <v>93</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" t="s" s="2">
-        <v>82</v>
+        <v>714</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>82</v>
@@ -24738,13 +24784,13 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>104</v>
@@ -24759,10 +24805,10 @@
         <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>82</v>
@@ -24773,10 +24819,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24796,19 +24842,23 @@
         <v>82</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
       </c>
@@ -24856,7 +24906,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24865,10 +24915,10 @@
         <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>82</v>
@@ -24877,10 +24927,10 @@
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -24891,21 +24941,21 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>82</v>
@@ -24914,21 +24964,23 @@
         <v>82</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O184" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
       </c>
@@ -24964,31 +25016,31 @@
         <v>82</v>
       </c>
       <c r="AB184" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC184" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>82</v>
@@ -24997,10 +25049,10 @@
         <v>82</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>82</v>
@@ -25011,24 +25063,26 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C185" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>718</v>
+      </c>
       <c r="D185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I185" t="s" s="2">
         <v>82</v>
@@ -25037,26 +25091,26 @@
         <v>93</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>82</v>
@@ -25098,13 +25152,13 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH185" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI185" t="s" s="2">
         <v>104</v>
@@ -25119,10 +25173,10 @@
         <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>
@@ -25133,10 +25187,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25156,20 +25210,18 @@
         <v>82</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25218,7 +25270,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25227,10 +25279,10 @@
         <v>92</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>82</v>
@@ -25239,10 +25291,10 @@
         <v>82</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>82</v>
@@ -25253,21 +25305,21 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>82</v>
@@ -25276,29 +25328,27 @@
         <v>82</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" t="s" s="2">
-        <v>712</v>
+        <v>82</v>
       </c>
       <c r="S187" t="s" s="2">
         <v>82</v>
@@ -25328,31 +25378,31 @@
         <v>82</v>
       </c>
       <c r="AB187" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC187" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>82</v>
@@ -25361,10 +25411,10 @@
         <v>82</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>82</v>
@@ -25375,10 +25425,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25401,26 +25451,26 @@
         <v>93</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>82</v>
@@ -25462,7 +25512,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25483,10 +25533,10 @@
         <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="AO188" t="s" s="2">
         <v>82</v>
@@ -25497,10 +25547,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25523,20 +25573,18 @@
         <v>93</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>82</v>
       </c>
@@ -25584,7 +25632,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25605,10 +25653,10 @@
         <v>82</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>82</v>
@@ -25619,14 +25667,12 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
         <v>82</v>
       </c>
@@ -25647,26 +25693,26 @@
         <v>93</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q190" s="2"/>
       <c r="R190" t="s" s="2">
-        <v>82</v>
+        <v>724</v>
       </c>
       <c r="S190" t="s" s="2">
         <v>82</v>
@@ -25708,13 +25754,13 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>104</v>
@@ -25729,10 +25775,10 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>82</v>
@@ -25743,10 +25789,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25772,16 +25818,16 @@
         <v>215</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -25830,7 +25876,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25851,10 +25897,10 @@
         <v>82</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>82</v>
@@ -25865,10 +25911,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25891,19 +25937,19 @@
         <v>93</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>448</v>
+        <v>275</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>617</v>
+        <v>276</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>450</v>
+        <v>277</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>618</v>
+        <v>278</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>452</v>
+        <v>279</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -25952,7 +25998,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>616</v>
+        <v>280</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25970,35 +26016,37 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>456</v>
+        <v>281</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>457</v>
+        <v>282</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C193" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="D193" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>92</v>
@@ -26010,22 +26058,22 @@
         <v>82</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>622</v>
+        <v>226</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>623</v>
+        <v>227</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>624</v>
+        <v>228</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
@@ -26050,13 +26098,13 @@
         <v>82</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>82</v>
@@ -26074,16 +26122,16 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>621</v>
+        <v>230</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>105</v>
@@ -26095,10 +26143,10 @@
         <v>82</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>470</v>
+        <v>232</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>82</v>
@@ -26109,21 +26157,21 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>82</v>
@@ -26132,22 +26180,22 @@
         <v>82</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>473</v>
+        <v>285</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>474</v>
+        <v>286</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>475</v>
+        <v>287</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>476</v>
+        <v>288</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -26172,13 +26220,13 @@
         <v>82</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>82</v>
@@ -26196,13 +26244,13 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>625</v>
+        <v>289</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI194" t="s" s="2">
         <v>104</v>
@@ -26214,27 +26262,27 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>481</v>
+        <v>291</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP194" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26245,31 +26293,31 @@
         <v>80</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>83</v>
+        <v>680</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>628</v>
+        <v>450</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>533</v>
+        <v>452</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26318,49 +26366,47 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>536</v>
+        <v>457</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP195" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C196" t="s" s="2">
-        <v>723</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
         <v>82</v>
       </c>
@@ -26369,7 +26415,7 @@
         <v>80</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H196" t="s" s="2">
         <v>82</v>
@@ -26378,23 +26424,19 @@
         <v>82</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>529</v>
+        <v>215</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>600</v>
+        <v>216</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
         <v>82</v>
       </c>
@@ -26442,16 +26484,16 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>599</v>
+        <v>218</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>82</v>
@@ -26463,10 +26505,10 @@
         <v>82</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>607</v>
+        <v>113</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>82</v>
@@ -26477,21 +26519,21 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>82</v>
@@ -26503,15 +26545,17 @@
         <v>82</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N197" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
         <v>82</v>
@@ -26548,31 +26592,31 @@
         <v>82</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC197" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD197" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>82</v>
@@ -26584,7 +26628,7 @@
         <v>82</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>82</v>
@@ -26595,21 +26639,21 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H198" t="s" s="2">
         <v>82</v>
@@ -26621,17 +26665,15 @@
         <v>82</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>141</v>
+        <v>687</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
         <v>82</v>
@@ -26641,16 +26683,16 @@
         <v>82</v>
       </c>
       <c r="S198" t="s" s="2">
-        <v>82</v>
+        <v>734</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="U198" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="V198" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="W198" t="s" s="2">
         <v>82</v>
@@ -26668,31 +26710,31 @@
         <v>82</v>
       </c>
       <c r="AB198" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC198" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>222</v>
+        <v>691</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>82</v>
@@ -26704,7 +26746,7 @@
         <v>82</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>82</v>
@@ -26715,45 +26757,45 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>143</v>
+        <v>624</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>152</v>
+        <v>465</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>82</v>
@@ -26778,13 +26820,13 @@
         <v>82</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>82</v>
@@ -26802,19 +26844,19 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>82</v>
@@ -26823,10 +26865,10 @@
         <v>82</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>106</v>
+        <v>470</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>82</v>
@@ -26837,21 +26879,21 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>728</v>
+        <v>472</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>82</v>
@@ -26860,22 +26902,22 @@
         <v>82</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>729</v>
+        <v>473</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>730</v>
+        <v>474</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>368</v>
+        <v>476</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>82</v>
@@ -26900,13 +26942,13 @@
         <v>82</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>370</v>
+        <v>477</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>371</v>
+        <v>478</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>82</v>
@@ -26924,45 +26966,45 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>615</v>
+        <v>479</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>374</v>
+        <v>480</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26973,7 +27015,7 @@
         <v>80</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>82</v>
@@ -26985,16 +27027,20 @@
         <v>82</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>216</v>
+        <v>627</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P201" t="s" s="2">
         <v>82</v>
       </c>
@@ -27042,13 +27088,13 @@
         <v>82</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>218</v>
+        <v>626</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>82</v>
@@ -27063,10 +27109,10 @@
         <v>82</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>113</v>
+        <v>536</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>82</v>
@@ -27077,14 +27123,16 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C202" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="D202" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
@@ -27100,21 +27148,23 @@
         <v>82</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>140</v>
+        <v>529</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>141</v>
+        <v>600</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>221</v>
+        <v>601</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O202" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="P202" t="s" s="2">
         <v>82</v>
       </c>
@@ -27150,19 +27200,19 @@
         <v>82</v>
       </c>
       <c r="AB202" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD202" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>222</v>
+        <v>599</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27174,7 +27224,7 @@
         <v>104</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>82</v>
@@ -27183,10 +27233,10 @@
         <v>82</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>82</v>
@@ -27197,10 +27247,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27208,10 +27258,10 @@
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>82</v>
@@ -27220,23 +27270,19 @@
         <v>82</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
         <v>82</v>
       </c>
@@ -27272,29 +27318,31 @@
         <v>82</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AC203" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD203" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>82</v>
@@ -27303,10 +27351,10 @@
         <v>82</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>82</v>
@@ -27317,23 +27365,21 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C204" t="s" s="2">
-        <v>735</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>82</v>
@@ -27342,23 +27388,21 @@
         <v>82</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
         <v>82</v>
       </c>
@@ -27394,19 +27438,19 @@
         <v>82</v>
       </c>
       <c r="AB204" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD204" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27418,7 +27462,7 @@
         <v>104</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>82</v>
@@ -27427,10 +27471,10 @@
         <v>82</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>82</v>
@@ -27441,42 +27485,46 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>216</v>
+        <v>541</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P205" t="s" s="2">
         <v>82</v>
       </c>
@@ -27524,19 +27572,19 @@
         <v>82</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>218</v>
+        <v>543</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>82</v>
@@ -27548,7 +27596,7 @@
         <v>82</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>82</v>
@@ -27559,21 +27607,21 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>139</v>
+        <v>744</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>82</v>
@@ -27582,21 +27630,23 @@
         <v>82</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>141</v>
+        <v>745</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>221</v>
+        <v>746</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O206" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P206" t="s" s="2">
         <v>82</v>
       </c>
@@ -27620,58 +27670,58 @@
         <v>82</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>222</v>
+        <v>611</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>82</v>
@@ -27679,10 +27729,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27702,29 +27752,25 @@
         <v>82</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>82</v>
@@ -27766,7 +27812,7 @@
         <v>82</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
@@ -27775,10 +27821,10 @@
         <v>92</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>82</v>
@@ -27787,10 +27833,10 @@
         <v>82</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>82</v>
@@ -27801,21 +27847,21 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>82</v>
@@ -27824,19 +27870,19 @@
         <v>82</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -27874,31 +27920,31 @@
         <v>82</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>82</v>
@@ -27907,10 +27953,10 @@
         <v>82</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>82</v>
@@ -27921,10 +27967,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27932,10 +27978,10 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>92</v>
+        <v>645</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>82</v>
@@ -27947,26 +27993,26 @@
         <v>93</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>741</v>
+        <v>82</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>82</v>
@@ -27996,25 +28042,23 @@
         <v>82</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC209" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="AC209" s="2"/>
       <c r="AD209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>104</v>
@@ -28029,10 +28073,10 @@
         <v>82</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>82</v>
@@ -28043,18 +28087,20 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C210" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>751</v>
+      </c>
       <c r="D210" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>92</v>
@@ -28069,19 +28115,19 @@
         <v>93</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>82</v>
@@ -28130,13 +28176,13 @@
         <v>82</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>104</v>
@@ -28151,10 +28197,10 @@
         <v>82</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>82</v>
@@ -28165,10 +28211,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28188,23 +28234,19 @@
         <v>82</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>82</v>
       </c>
@@ -28252,7 +28294,7 @@
         <v>82</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28261,10 +28303,10 @@
         <v>92</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>82</v>
@@ -28273,10 +28315,10 @@
         <v>82</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>82</v>
@@ -28287,48 +28329,44 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C212" t="s" s="2">
-        <v>745</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>82</v>
       </c>
@@ -28364,19 +28402,19 @@
         <v>82</v>
       </c>
       <c r="AB212" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD212" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28388,7 +28426,7 @@
         <v>104</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>82</v>
@@ -28397,10 +28435,10 @@
         <v>82</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>82</v>
@@ -28411,10 +28449,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28434,25 +28472,29 @@
         <v>82</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P213" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>82</v>
@@ -28494,7 +28536,7 @@
         <v>82</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28503,10 +28545,10 @@
         <v>92</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>82</v>
@@ -28515,10 +28557,10 @@
         <v>82</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>82</v>
@@ -28529,21 +28571,21 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>82</v>
@@ -28552,19 +28594,19 @@
         <v>82</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -28602,31 +28644,31 @@
         <v>82</v>
       </c>
       <c r="AB214" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD214" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>82</v>
@@ -28635,10 +28677,10 @@
         <v>82</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>82</v>
@@ -28649,10 +28691,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28660,7 +28702,7 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>92</v>
@@ -28675,26 +28717,26 @@
         <v>93</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q215" s="2"/>
       <c r="R215" t="s" s="2">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="S215" t="s" s="2">
         <v>82</v>
@@ -28736,7 +28778,7 @@
         <v>82</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28757,10 +28799,10 @@
         <v>82</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>82</v>
@@ -28771,10 +28813,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28800,15 +28842,17 @@
         <v>215</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O216" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P216" t="s" s="2">
         <v>82</v>
       </c>
@@ -28856,7 +28900,7 @@
         <v>82</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28877,10 +28921,10 @@
         <v>82</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>82</v>
@@ -28891,10 +28935,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28902,7 +28946,7 @@
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>92</v>
@@ -28917,26 +28961,26 @@
         <v>93</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q217" s="2"/>
       <c r="R217" t="s" s="2">
-        <v>751</v>
+        <v>82</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>82</v>
@@ -28978,7 +29022,7 @@
         <v>82</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -28999,10 +29043,10 @@
         <v>82</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>82</v>
@@ -29013,24 +29057,26 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C218" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>761</v>
+      </c>
       <c r="D218" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>82</v>
@@ -29039,19 +29085,19 @@
         <v>93</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>82</v>
@@ -29100,13 +29146,13 @@
         <v>82</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>104</v>
@@ -29121,10 +29167,10 @@
         <v>82</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>82</v>
@@ -29135,10 +29181,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29158,23 +29204,19 @@
         <v>82</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>82</v>
       </c>
@@ -29222,7 +29264,7 @@
         <v>82</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29231,10 +29273,10 @@
         <v>92</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>82</v>
@@ -29243,10 +29285,10 @@
         <v>82</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>82</v>
@@ -29257,23 +29299,21 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C220" t="s" s="2">
-        <v>755</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H220" t="s" s="2">
         <v>82</v>
@@ -29282,23 +29322,21 @@
         <v>82</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>82</v>
       </c>
@@ -29334,19 +29372,19 @@
         <v>82</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD220" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29358,7 +29396,7 @@
         <v>104</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>82</v>
@@ -29367,10 +29405,10 @@
         <v>82</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO220" t="s" s="2">
         <v>82</v>
@@ -29381,10 +29419,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29407,26 +29445,26 @@
         <v>93</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>82</v>
@@ -29468,7 +29506,7 @@
         <v>82</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29489,10 +29527,10 @@
         <v>82</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="AO221" t="s" s="2">
         <v>82</v>
@@ -29503,10 +29541,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29529,20 +29567,18 @@
         <v>93</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>617</v>
+        <v>249</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>82</v>
       </c>
@@ -29590,7 +29626,7 @@
         <v>82</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>616</v>
+        <v>252</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
@@ -29608,27 +29644,27 @@
         <v>82</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>456</v>
+        <v>253</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>457</v>
+        <v>254</v>
       </c>
       <c r="AO222" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP222" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29636,7 +29672,7 @@
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>92</v>
@@ -29648,29 +29684,29 @@
         <v>82</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>622</v>
+        <v>257</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>623</v>
+        <v>258</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>624</v>
+        <v>259</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>465</v>
+        <v>260</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>82</v>
+        <v>767</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>82</v>
@@ -29688,13 +29724,13 @@
         <v>82</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z223" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA223" t="s" s="2">
         <v>82</v>
@@ -29712,7 +29748,7 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>621</v>
+        <v>262</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -29721,7 +29757,7 @@
         <v>92</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>105</v>
@@ -29733,10 +29769,10 @@
         <v>82</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>470</v>
+        <v>264</v>
       </c>
       <c r="AO223" t="s" s="2">
         <v>82</v>
@@ -29747,21 +29783,21 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>82</v>
@@ -29770,22 +29806,22 @@
         <v>82</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>473</v>
+        <v>267</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>474</v>
+        <v>268</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>475</v>
+        <v>259</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>476</v>
+        <v>269</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>82</v>
@@ -29810,13 +29846,13 @@
         <v>82</v>
       </c>
       <c r="X224" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>82</v>
@@ -29834,13 +29870,13 @@
         <v>82</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>625</v>
+        <v>270</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI224" t="s" s="2">
         <v>104</v>
@@ -29852,27 +29888,27 @@
         <v>82</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>481</v>
+        <v>272</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP224" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29883,7 +29919,7 @@
         <v>80</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>82</v>
@@ -29892,22 +29928,22 @@
         <v>82</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>627</v>
+        <v>276</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>628</v>
+        <v>277</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>532</v>
+        <v>278</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>533</v>
+        <v>279</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>82</v>
@@ -29956,41 +29992,1131 @@
         <v>82</v>
       </c>
       <c r="AF225" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN225" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP225" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN226" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP226" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q227" s="2"/>
+      <c r="R227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AO227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP227" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q228" s="2"/>
+      <c r="R228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AO228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP228" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q229" s="2"/>
+      <c r="R229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN229" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP229" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O230" s="2"/>
+      <c r="P230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q230" s="2"/>
+      <c r="R230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN230" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP230" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="231" hidden="true">
+      <c r="A231" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q231" s="2"/>
+      <c r="R231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S231" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP231" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="232" hidden="true">
+      <c r="A232" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM232" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN232" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP232" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" hidden="true">
+      <c r="A233" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q233" s="2"/>
+      <c r="R233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL233" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM233" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN233" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP233" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="234" hidden="true">
+      <c r="A234" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="B234" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AG225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH225" t="s" s="2">
+      <c r="C234" s="2"/>
+      <c r="D234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G234" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI225" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK225" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL225" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM225" t="s" s="2">
+      <c r="H234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O234" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q234" s="2"/>
+      <c r="R234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM234" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AN225" t="s" s="2">
+      <c r="AN234" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AO225" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP225" t="s" s="2">
+      <c r="AO234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP234" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP225">
+  <autoFilter ref="A1:AP234">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -30000,7 +31126,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI224">
+  <conditionalFormatting sqref="A2:AI233">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-biological-gender</t>
+    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-ethnic-groups</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2781,7 +2781,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.8984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.79296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
@@ -18144,7 +18144,7 @@
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -18666,7 +18666,7 @@
         <v>92</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-patient-sex</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4994,7 +4994,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5354,7 +5354,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5596,7 +5596,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6446,7 +6446,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6806,7 +6806,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -7048,7 +7048,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7898,7 +7898,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -8258,7 +8258,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8500,7 +8500,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -9350,7 +9350,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9710,7 +9710,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9952,7 +9952,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10802,7 +10802,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -11162,7 +11162,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11404,7 +11404,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -12254,7 +12254,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12614,7 +12614,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12856,7 +12856,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-ethnic-groups</t>
+    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-biological-gender</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2781,7 +2781,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.79296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.8984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
@@ -20472,7 +20472,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>92</v>
@@ -21442,7 +21442,7 @@
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>92</v>
@@ -22656,7 +22656,7 @@
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>92</v>
@@ -24466,7 +24466,7 @@
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>92</v>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>92</v>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>92</v>
@@ -28460,7 +28460,7 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>92</v>
@@ -29430,7 +29430,7 @@
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G221" t="s" s="2">
         <v>92</v>
@@ -30644,7 +30644,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>
@@ -19151,7 +19151,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>92</v>
@@ -21564,7 +21564,7 @@
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>92</v>
@@ -23145,7 +23145,7 @@
         <v>80</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>82</v>
@@ -24588,7 +24588,7 @@
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>92</v>
@@ -25558,7 +25558,7 @@
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>92</v>
@@ -27139,7 +27139,7 @@
         <v>80</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H202" t="s" s="2">
         <v>82</v>
@@ -28582,7 +28582,7 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>92</v>
@@ -29552,7 +29552,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$225</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9047" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8711" uniqueCount="762">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory</t>
-  </si>
-  <si>
-    <t>SocialHistory</t>
-  </si>
-  <si>
-    <t>Observation.category:SocialHistory.id</t>
+    <t>Observation.category:Exam</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Observation.category:Exam.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.extension</t>
+    <t>Observation.category:Exam.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding</t>
+    <t>Observation.category:Exam.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.id</t>
+    <t>Observation.category:Exam.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.extension</t>
+    <t>Observation.category:Exam.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.system</t>
+    <t>Observation.category:Exam.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.version</t>
+    <t>Observation.category:Exam.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.code</t>
+    <t>Observation.category:Exam.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>social-history</t>
+    <t>exam</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.display</t>
+    <t>Observation.category:Exam.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.coding.userSelected</t>
+    <t>Observation.category:Exam.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:SocialHistory.text</t>
+    <t>Observation.category:Exam.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -2024,192 +2024,159 @@
     <t>3</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode</t>
+  </si>
+  <si>
+    <t>MaleSNOMEDCode</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>248153007</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleSNOMEDCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode</t>
+  </si>
+  <si>
+    <t>MaleUMLSCode</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.version</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.code</t>
+  </si>
+  <si>
+    <t>C1706180</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.display</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:MaleUMLSCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding:maleLOINCCode</t>
+  </si>
+  <si>
+    <t>maleLOINCCode</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:male.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:male.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:male.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:male.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:female</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Observation.component:female.id</t>
+  </si>
+  <si>
+    <t>Observation.component:female.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:female.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:female.code</t>
+  </si>
+  <si>
+    <t>Feminine
+Weiblich</t>
+  </si>
+  <si>
+    <t>Female sex</t>
+  </si>
+  <si>
+    <t>Biological female sex</t>
+  </si>
+  <si>
+    <t>Observation.component:female.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:female.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:female.code.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode</t>
-  </si>
-  <si>
-    <t>MaleSNOMEDCode</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.system</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.version</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.code</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.code</t>
-  </si>
-  <si>
-    <t>248153007</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.display</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleSNOMEDCode.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode</t>
-  </si>
-  <si>
-    <t>MaleUMLSCode</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.system</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.version</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.code</t>
-  </si>
-  <si>
-    <t>C1706180</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.display</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:MaleUMLSCode.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding:maleLOINCCode</t>
-  </si>
-  <si>
-    <t>maleLOINCCode</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component:male.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Observation.component:male.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.value[x].value</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].value</t>
-  </si>
-  <si>
-    <t>Primitive value for integer</t>
-  </si>
-  <si>
-    <t>Internal coding of German Center for Diabetes Research (DZD)</t>
-  </si>
-  <si>
-    <t>-2147483648</t>
-  </si>
-  <si>
-    <t>2147483647</t>
-  </si>
-  <si>
-    <t>integer.value</t>
-  </si>
-  <si>
-    <t>Observation.component:male.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:male.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:male.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:female</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Observation.component:female.id</t>
-  </si>
-  <si>
-    <t>Observation.component:female.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:female.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:female.code</t>
-  </si>
-  <si>
-    <t>Feminine
-Weiblich</t>
-  </si>
-  <si>
-    <t>Female sex</t>
-  </si>
-  <si>
-    <t>Biological female sex</t>
-  </si>
-  <si>
-    <t>Observation.component:female.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:female.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:female.code.coding</t>
-  </si>
-  <si>
     <t>Observation.component:female.code.coding:FemaleSNOMEDCode</t>
   </si>
   <si>
@@ -2280,18 +2247,6 @@
   </si>
   <si>
     <t>Observation.component:female.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:female.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component:female.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.component:female.value[x].value</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Observation.component:female.dataAbsentReason</t>
@@ -2410,15 +2365,6 @@
   </si>
   <si>
     <t>Observation.component:intersex.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:intersex.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component:intersex.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.component:intersex.value[x].value</t>
   </si>
   <si>
     <t>Observation.component:intersex.dataAbsentReason</t>
@@ -2747,7 +2693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP234"/>
+  <dimension ref="A1:AP225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4574,7 +4520,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>
@@ -18056,13 +18002,13 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>82</v>
@@ -18144,7 +18090,7 @@
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -22302,7 +22248,7 @@
         <v>92</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>82</v>
@@ -22311,7 +22257,7 @@
         <v>93</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>680</v>
+        <v>448</v>
       </c>
       <c r="L162" t="s" s="2">
         <v>617</v>
@@ -22407,10 +22353,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>682</v>
+        <v>621</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22433,16 +22379,20 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>216</v>
+        <v>622</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
@@ -22466,13 +22416,13 @@
         <v>82</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -22490,7 +22440,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>218</v>
+        <v>621</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22499,10 +22449,10 @@
         <v>92</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>82</v>
@@ -22511,10 +22461,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>113</v>
+        <v>470</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22525,14 +22475,14 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>684</v>
+        <v>625</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>139</v>
+        <v>472</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -22551,18 +22501,20 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>141</v>
+        <v>473</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>221</v>
+        <v>474</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -22586,31 +22538,31 @@
         <v>82</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB164" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC164" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>222</v>
+        <v>625</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22622,33 +22574,33 @@
         <v>104</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>106</v>
+        <v>481</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP164" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>686</v>
+        <v>626</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22656,10 +22608,10 @@
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22671,16 +22623,20 @@
         <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>680</v>
+        <v>83</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22689,16 +22645,16 @@
         <v>82</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="U165" t="s" s="2">
-        <v>689</v>
+        <v>82</v>
       </c>
       <c r="V165" t="s" s="2">
-        <v>690</v>
+        <v>82</v>
       </c>
       <c r="W165" t="s" s="2">
         <v>82</v>
@@ -22728,13 +22684,13 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>691</v>
+        <v>626</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>82</v>
@@ -22749,10 +22705,10 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22763,12 +22719,14 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C166" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>684</v>
+      </c>
       <c r="D166" t="s" s="2">
         <v>82</v>
       </c>
@@ -22786,22 +22744,22 @@
         <v>82</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>198</v>
+        <v>529</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>465</v>
+        <v>603</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22826,13 +22784,13 @@
         <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22850,19 +22808,19 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>82</v>
@@ -22871,10 +22829,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>106</v>
+        <v>606</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22885,21 +22843,21 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>82</v>
@@ -22911,20 +22869,16 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>473</v>
+        <v>216</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
         <v>82</v>
       </c>
@@ -22948,13 +22902,13 @@
         <v>82</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -22972,49 +22926,49 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>625</v>
+        <v>218</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>481</v>
+        <v>113</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP167" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
@@ -23033,20 +22987,18 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>627</v>
+        <v>141</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>628</v>
+        <v>221</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
@@ -23082,19 +23034,19 @@
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC168" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>626</v>
+        <v>222</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23103,10 +23055,10 @@
         <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
@@ -23115,10 +23067,10 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>536</v>
+        <v>106</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -23129,47 +23081,45 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>529</v>
+        <v>140</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>600</v>
+        <v>541</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>601</v>
+        <v>542</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>602</v>
+        <v>143</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>603</v>
+        <v>152</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23218,7 +23168,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23230,7 +23180,7 @@
         <v>104</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>82</v>
@@ -23239,10 +23189,10 @@
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>607</v>
+        <v>106</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23253,18 +23203,18 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>92</v>
@@ -23276,19 +23226,23 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>216</v>
+        <v>690</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23312,13 +23266,13 @@
         <v>82</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -23336,16 +23290,16 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>218</v>
+        <v>611</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>82</v>
@@ -23354,16 +23308,16 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23371,21 +23325,21 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>82</v>
@@ -23397,17 +23351,15 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23444,31 +23396,31 @@
         <v>82</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -23480,7 +23432,7 @@
         <v>82</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23491,14 +23443,14 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>540</v>
+        <v>139</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -23511,26 +23463,24 @@
         <v>82</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>541</v>
+        <v>141</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>542</v>
+        <v>221</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O172" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
@@ -23566,19 +23516,19 @@
         <v>82</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC172" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>543</v>
+        <v>222</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23613,21 +23563,21 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>701</v>
+        <v>82</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>92</v>
+        <v>645</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>82</v>
@@ -23639,19 +23589,19 @@
         <v>93</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>702</v>
+        <v>226</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>703</v>
+        <v>227</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>638</v>
+        <v>228</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23676,58 +23626,56 @@
         <v>82</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB173" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="AC173" s="2"/>
       <c r="AD173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>611</v>
+        <v>230</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23735,42 +23683,48 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C174" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>697</v>
+      </c>
       <c r="D174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
       </c>
@@ -23818,19 +23772,19 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
@@ -23839,10 +23793,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23853,21 +23807,21 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>82</v>
@@ -23879,17 +23833,15 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23926,31 +23878,31 @@
         <v>82</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>82</v>
@@ -23962,7 +23914,7 @@
         <v>82</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23973,18 +23925,18 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>81</v>
@@ -23996,23 +23948,21 @@
         <v>82</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
         <v>82</v>
       </c>
@@ -24048,9 +23998,11 @@
         <v>82</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AC176" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AD176" t="s" s="2">
         <v>82</v>
       </c>
@@ -24058,7 +24010,7 @@
         <v>146</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24070,7 +24022,7 @@
         <v>104</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>82</v>
@@ -24079,10 +24031,10 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -24093,14 +24045,12 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>708</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
         <v>82</v>
       </c>
@@ -24112,7 +24062,7 @@
         <v>92</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>82</v>
@@ -24121,26 +24071,26 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>82</v>
@@ -24182,13 +24132,13 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>104</v>
@@ -24203,10 +24153,10 @@
         <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -24217,10 +24167,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24228,7 +24178,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>92</v>
@@ -24240,18 +24190,20 @@
         <v>82</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N178" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24300,7 +24252,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24309,10 +24261,10 @@
         <v>92</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>82</v>
@@ -24321,10 +24273,10 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24335,21 +24287,21 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>82</v>
@@ -24358,27 +24310,29 @@
         <v>82</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O179" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>82</v>
+        <v>703</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>82</v>
@@ -24408,31 +24362,31 @@
         <v>82</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>82</v>
@@ -24441,10 +24395,10 @@
         <v>82</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
@@ -24455,10 +24409,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24466,7 +24420,7 @@
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>92</v>
@@ -24481,26 +24435,26 @@
         <v>93</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24542,7 +24496,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24563,10 +24517,10 @@
         <v>82</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>82</v>
@@ -24577,10 +24531,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24588,7 +24542,7 @@
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>92</v>
@@ -24603,18 +24557,20 @@
         <v>93</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O181" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
       </c>
@@ -24662,7 +24618,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24683,10 +24639,10 @@
         <v>82</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>82</v>
@@ -24697,12 +24653,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="C182" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="D182" t="s" s="2">
         <v>82</v>
       </c>
@@ -24714,7 +24672,7 @@
         <v>92</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>82</v>
@@ -24723,26 +24681,26 @@
         <v>93</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" t="s" s="2">
-        <v>714</v>
+        <v>82</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>82</v>
@@ -24784,13 +24742,13 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>104</v>
@@ -24805,10 +24763,10 @@
         <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>82</v>
@@ -24819,10 +24777,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24842,23 +24800,19 @@
         <v>82</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>82</v>
       </c>
@@ -24906,7 +24860,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24915,10 +24869,10 @@
         <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>82</v>
@@ -24927,10 +24881,10 @@
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -24941,21 +24895,21 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>82</v>
@@ -24964,23 +24918,21 @@
         <v>82</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
         <v>82</v>
       </c>
@@ -25016,31 +24968,31 @@
         <v>82</v>
       </c>
       <c r="AB184" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC184" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>82</v>
@@ -25049,10 +25001,10 @@
         <v>82</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>82</v>
@@ -25063,14 +25015,12 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>718</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
         <v>82</v>
       </c>
@@ -25082,7 +25032,7 @@
         <v>92</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I185" t="s" s="2">
         <v>82</v>
@@ -25091,26 +25041,26 @@
         <v>93</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" t="s" s="2">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>82</v>
@@ -25152,13 +25102,13 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH185" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI185" t="s" s="2">
         <v>104</v>
@@ -25173,10 +25123,10 @@
         <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>
@@ -25187,10 +25137,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25198,7 +25148,7 @@
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>92</v>
@@ -25210,18 +25160,20 @@
         <v>82</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N186" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25270,7 +25222,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25279,10 +25231,10 @@
         <v>92</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>82</v>
@@ -25291,10 +25243,10 @@
         <v>82</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>82</v>
@@ -25305,21 +25257,21 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>82</v>
@@ -25328,27 +25280,29 @@
         <v>82</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O187" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" t="s" s="2">
-        <v>82</v>
+        <v>713</v>
       </c>
       <c r="S187" t="s" s="2">
         <v>82</v>
@@ -25378,31 +25332,31 @@
         <v>82</v>
       </c>
       <c r="AB187" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC187" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>82</v>
@@ -25411,10 +25365,10 @@
         <v>82</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>82</v>
@@ -25425,10 +25379,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25436,7 +25390,7 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>92</v>
@@ -25451,26 +25405,26 @@
         <v>93</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>82</v>
@@ -25512,7 +25466,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25533,10 +25487,10 @@
         <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AO188" t="s" s="2">
         <v>82</v>
@@ -25547,10 +25501,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25558,7 +25512,7 @@
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>92</v>
@@ -25573,18 +25527,20 @@
         <v>93</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O189" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P189" t="s" s="2">
         <v>82</v>
       </c>
@@ -25632,7 +25588,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25653,10 +25609,10 @@
         <v>82</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>82</v>
@@ -25667,12 +25623,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="C190" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="D190" t="s" s="2">
         <v>82</v>
       </c>
@@ -25693,26 +25651,26 @@
         <v>93</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q190" s="2"/>
       <c r="R190" t="s" s="2">
-        <v>724</v>
+        <v>82</v>
       </c>
       <c r="S190" t="s" s="2">
         <v>82</v>
@@ -25754,13 +25712,13 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>104</v>
@@ -25775,10 +25733,10 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>82</v>
@@ -25789,10 +25747,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25818,16 +25776,16 @@
         <v>215</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -25876,7 +25834,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25897,10 +25855,10 @@
         <v>82</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>82</v>
@@ -25911,10 +25869,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25937,19 +25895,19 @@
         <v>93</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>276</v>
+        <v>617</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>277</v>
+        <v>450</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>278</v>
+        <v>618</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>279</v>
+        <v>452</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -25998,7 +25956,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>280</v>
+        <v>616</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26016,37 +25974,35 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>282</v>
+        <v>457</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>728</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>92</v>
@@ -26058,22 +26014,22 @@
         <v>82</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>226</v>
+        <v>622</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>227</v>
+        <v>623</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>228</v>
+        <v>624</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>229</v>
+        <v>465</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
@@ -26098,13 +26054,13 @@
         <v>82</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>82</v>
@@ -26122,16 +26078,16 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>230</v>
+        <v>621</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>105</v>
@@ -26143,10 +26099,10 @@
         <v>82</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>82</v>
@@ -26157,21 +26113,21 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>678</v>
+        <v>625</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>82</v>
@@ -26180,22 +26136,22 @@
         <v>82</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>285</v>
+        <v>473</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>286</v>
+        <v>474</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>287</v>
+        <v>475</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>288</v>
+        <v>476</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -26220,13 +26176,13 @@
         <v>82</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>82</v>
@@ -26244,13 +26200,13 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>289</v>
+        <v>625</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI194" t="s" s="2">
         <v>104</v>
@@ -26262,27 +26218,27 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>291</v>
+        <v>481</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP194" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26293,31 +26249,31 @@
         <v>80</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>680</v>
+        <v>83</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>450</v>
+        <v>628</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>618</v>
+        <v>532</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26366,47 +26322,49 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP195" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C196" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>724</v>
+      </c>
       <c r="D196" t="s" s="2">
         <v>82</v>
       </c>
@@ -26424,19 +26382,23 @@
         <v>82</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>215</v>
+        <v>529</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="P196" t="s" s="2">
         <v>82</v>
       </c>
@@ -26484,16 +26446,16 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>218</v>
+        <v>599</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>82</v>
@@ -26505,10 +26467,10 @@
         <v>82</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>113</v>
+        <v>607</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>82</v>
@@ -26519,21 +26481,21 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>684</v>
+        <v>608</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>82</v>
@@ -26545,17 +26507,15 @@
         <v>82</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
         <v>82</v>
@@ -26592,31 +26552,31 @@
         <v>82</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC197" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD197" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>82</v>
@@ -26628,7 +26588,7 @@
         <v>82</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>82</v>
@@ -26639,21 +26599,21 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>686</v>
+        <v>609</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H198" t="s" s="2">
         <v>82</v>
@@ -26665,15 +26625,17 @@
         <v>82</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>680</v>
+        <v>140</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>687</v>
+        <v>141</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N198" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
         <v>82</v>
@@ -26683,16 +26645,16 @@
         <v>82</v>
       </c>
       <c r="S198" t="s" s="2">
-        <v>734</v>
+        <v>82</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="U198" t="s" s="2">
-        <v>689</v>
+        <v>82</v>
       </c>
       <c r="V198" t="s" s="2">
-        <v>690</v>
+        <v>82</v>
       </c>
       <c r="W198" t="s" s="2">
         <v>82</v>
@@ -26710,31 +26672,31 @@
         <v>82</v>
       </c>
       <c r="AB198" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC198" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>691</v>
+        <v>222</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>82</v>
@@ -26746,7 +26708,7 @@
         <v>82</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>82</v>
@@ -26757,45 +26719,45 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>622</v>
+        <v>541</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>623</v>
+        <v>542</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>624</v>
+        <v>143</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>465</v>
+        <v>152</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>82</v>
@@ -26820,13 +26782,13 @@
         <v>82</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>82</v>
@@ -26844,19 +26806,19 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>82</v>
@@ -26865,10 +26827,10 @@
         <v>82</v>
       </c>
       <c r="AM199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN199" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AN199" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>82</v>
@@ -26879,21 +26841,21 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>472</v>
+        <v>729</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>82</v>
@@ -26902,22 +26864,22 @@
         <v>82</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>473</v>
+        <v>730</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>474</v>
+        <v>731</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>476</v>
+        <v>368</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>82</v>
@@ -26942,13 +26904,13 @@
         <v>82</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>466</v>
+        <v>369</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>478</v>
+        <v>371</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>82</v>
@@ -26966,45 +26928,45 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>479</v>
+        <v>615</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>480</v>
+        <v>374</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27015,7 +26977,7 @@
         <v>80</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>82</v>
@@ -27027,20 +26989,16 @@
         <v>82</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>627</v>
+        <v>216</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
         <v>82</v>
       </c>
@@ -27088,13 +27046,13 @@
         <v>82</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>626</v>
+        <v>218</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>82</v>
@@ -27109,10 +27067,10 @@
         <v>82</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>536</v>
+        <v>113</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>82</v>
@@ -27123,23 +27081,21 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C202" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H202" t="s" s="2">
         <v>82</v>
@@ -27148,23 +27104,21 @@
         <v>82</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>529</v>
+        <v>140</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>600</v>
+        <v>141</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>601</v>
+        <v>221</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
         <v>82</v>
       </c>
@@ -27200,19 +27154,19 @@
         <v>82</v>
       </c>
       <c r="AB202" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD202" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27224,7 +27178,7 @@
         <v>104</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>82</v>
@@ -27233,10 +27187,10 @@
         <v>82</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>607</v>
+        <v>106</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>82</v>
@@ -27247,10 +27201,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27258,10 +27212,10 @@
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
-        <v>80</v>
+        <v>645</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>82</v>
@@ -27270,19 +27224,23 @@
         <v>82</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P203" t="s" s="2">
         <v>82</v>
       </c>
@@ -27318,31 +27276,29 @@
         <v>82</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="AC203" s="2"/>
       <c r="AD203" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>82</v>
@@ -27351,10 +27307,10 @@
         <v>82</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>82</v>
@@ -27365,21 +27321,23 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C204" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="D204" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>82</v>
@@ -27388,21 +27346,23 @@
         <v>82</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O204" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P204" t="s" s="2">
         <v>82</v>
       </c>
@@ -27438,19 +27398,19 @@
         <v>82</v>
       </c>
       <c r="AB204" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD204" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27462,7 +27422,7 @@
         <v>104</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>82</v>
@@ -27471,10 +27431,10 @@
         <v>82</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>82</v>
@@ -27485,46 +27445,42 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>541</v>
+        <v>216</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>82</v>
       </c>
@@ -27572,19 +27528,19 @@
         <v>82</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>543</v>
+        <v>218</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>82</v>
@@ -27596,7 +27552,7 @@
         <v>82</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>82</v>
@@ -27607,21 +27563,21 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>611</v>
+        <v>652</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>744</v>
+        <v>139</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>82</v>
@@ -27630,23 +27586,21 @@
         <v>82</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>745</v>
+        <v>141</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>746</v>
+        <v>221</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>82</v>
       </c>
@@ -27670,58 +27624,58 @@
         <v>82</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>611</v>
+        <v>222</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>82</v>
@@ -27729,10 +27683,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27740,7 +27694,7 @@
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>92</v>
@@ -27752,25 +27706,29 @@
         <v>82</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P207" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>82</v>
@@ -27812,7 +27770,7 @@
         <v>82</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
@@ -27821,10 +27779,10 @@
         <v>92</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>82</v>
@@ -27833,10 +27791,10 @@
         <v>82</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>82</v>
@@ -27847,21 +27805,21 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>82</v>
@@ -27870,19 +27828,19 @@
         <v>82</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -27920,31 +27878,31 @@
         <v>82</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>82</v>
@@ -27953,10 +27911,10 @@
         <v>82</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>82</v>
@@ -27967,10 +27925,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27978,10 +27936,10 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>645</v>
+        <v>92</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>82</v>
@@ -27993,26 +27951,26 @@
         <v>93</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>82</v>
+        <v>742</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>82</v>
@@ -28042,23 +28000,25 @@
         <v>82</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AC209" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>104</v>
@@ -28073,10 +28033,10 @@
         <v>82</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>82</v>
@@ -28087,20 +28047,18 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C210" t="s" s="2">
-        <v>751</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>92</v>
@@ -28115,19 +28073,19 @@
         <v>93</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>82</v>
@@ -28176,13 +28134,13 @@
         <v>82</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>104</v>
@@ -28197,10 +28155,10 @@
         <v>82</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>82</v>
@@ -28211,10 +28169,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28234,19 +28192,23 @@
         <v>82</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P211" t="s" s="2">
         <v>82</v>
       </c>
@@ -28294,7 +28256,7 @@
         <v>82</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28303,10 +28265,10 @@
         <v>92</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>82</v>
@@ -28315,10 +28277,10 @@
         <v>82</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>82</v>
@@ -28329,44 +28291,48 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C212" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>746</v>
+      </c>
       <c r="D212" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O212" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P212" t="s" s="2">
         <v>82</v>
       </c>
@@ -28402,19 +28368,19 @@
         <v>82</v>
       </c>
       <c r="AB212" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD212" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28426,7 +28392,7 @@
         <v>104</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>82</v>
@@ -28435,10 +28401,10 @@
         <v>82</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>82</v>
@@ -28449,10 +28415,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28460,7 +28426,7 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>92</v>
@@ -28472,29 +28438,25 @@
         <v>82</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>82</v>
@@ -28536,7 +28498,7 @@
         <v>82</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28545,10 +28507,10 @@
         <v>92</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>82</v>
@@ -28557,10 +28519,10 @@
         <v>82</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>82</v>
@@ -28571,21 +28533,21 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>82</v>
@@ -28594,19 +28556,19 @@
         <v>82</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -28644,31 +28606,31 @@
         <v>82</v>
       </c>
       <c r="AB214" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD214" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>82</v>
@@ -28677,10 +28639,10 @@
         <v>82</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>82</v>
@@ -28691,10 +28653,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28717,26 +28679,26 @@
         <v>93</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q215" s="2"/>
       <c r="R215" t="s" s="2">
-        <v>757</v>
+        <v>669</v>
       </c>
       <c r="S215" t="s" s="2">
         <v>82</v>
@@ -28778,7 +28740,7 @@
         <v>82</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28799,10 +28761,10 @@
         <v>82</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>82</v>
@@ -28813,10 +28775,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28824,7 +28786,7 @@
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G216" t="s" s="2">
         <v>92</v>
@@ -28842,17 +28804,15 @@
         <v>215</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
         <v>82</v>
       </c>
@@ -28900,7 +28860,7 @@
         <v>82</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28921,10 +28881,10 @@
         <v>82</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>82</v>
@@ -28935,10 +28895,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28946,7 +28906,7 @@
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G217" t="s" s="2">
         <v>92</v>
@@ -28961,26 +28921,26 @@
         <v>93</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q217" s="2"/>
       <c r="R217" t="s" s="2">
-        <v>82</v>
+        <v>752</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>82</v>
@@ -29022,7 +28982,7 @@
         <v>82</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29043,10 +29003,10 @@
         <v>82</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>82</v>
@@ -29057,26 +29017,24 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C218" t="s" s="2">
-        <v>761</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>82</v>
@@ -29085,19 +29043,19 @@
         <v>93</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>82</v>
@@ -29146,13 +29104,13 @@
         <v>82</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>104</v>
@@ -29167,10 +29125,10 @@
         <v>82</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>82</v>
@@ -29181,10 +29139,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29204,19 +29162,23 @@
         <v>82</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P219" t="s" s="2">
         <v>82</v>
       </c>
@@ -29264,7 +29226,7 @@
         <v>82</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29273,10 +29235,10 @@
         <v>92</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>82</v>
@@ -29285,10 +29247,10 @@
         <v>82</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>82</v>
@@ -29299,21 +29261,23 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C220" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>756</v>
+      </c>
       <c r="D220" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H220" t="s" s="2">
         <v>82</v>
@@ -29322,21 +29286,23 @@
         <v>82</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>82</v>
       </c>
@@ -29372,19 +29338,19 @@
         <v>82</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD220" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29396,7 +29362,7 @@
         <v>104</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>82</v>
@@ -29405,10 +29371,10 @@
         <v>82</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO220" t="s" s="2">
         <v>82</v>
@@ -29419,10 +29385,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29430,7 +29396,7 @@
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G221" t="s" s="2">
         <v>92</v>
@@ -29445,26 +29411,26 @@
         <v>93</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>82</v>
@@ -29506,7 +29472,7 @@
         <v>82</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29527,10 +29493,10 @@
         <v>82</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="AO221" t="s" s="2">
         <v>82</v>
@@ -29541,10 +29507,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29552,7 +29518,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>92</v>
@@ -29567,18 +29533,20 @@
         <v>93</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>215</v>
+        <v>448</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>249</v>
+        <v>617</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O222" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="O222" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P222" t="s" s="2">
         <v>82</v>
       </c>
@@ -29626,7 +29594,7 @@
         <v>82</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>252</v>
+        <v>616</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
@@ -29644,27 +29612,27 @@
         <v>82</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>253</v>
+        <v>456</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>254</v>
+        <v>457</v>
       </c>
       <c r="AO222" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP222" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29672,7 +29640,7 @@
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>92</v>
@@ -29684,29 +29652,29 @@
         <v>82</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>257</v>
+        <v>622</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>258</v>
+        <v>623</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>259</v>
+        <v>624</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>260</v>
+        <v>465</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>767</v>
+        <v>82</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>82</v>
@@ -29724,13 +29692,13 @@
         <v>82</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z223" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA223" t="s" s="2">
         <v>82</v>
@@ -29748,7 +29716,7 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>262</v>
+        <v>621</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -29757,7 +29725,7 @@
         <v>92</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="AJ223" t="s" s="2">
         <v>105</v>
@@ -29769,10 +29737,10 @@
         <v>82</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="AO223" t="s" s="2">
         <v>82</v>
@@ -29783,21 +29751,21 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>82</v>
@@ -29806,22 +29774,22 @@
         <v>82</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>267</v>
+        <v>473</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>259</v>
+        <v>475</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>269</v>
+        <v>476</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>82</v>
@@ -29846,13 +29814,13 @@
         <v>82</v>
       </c>
       <c r="X224" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>82</v>
@@ -29870,13 +29838,13 @@
         <v>82</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>270</v>
+        <v>625</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI224" t="s" s="2">
         <v>104</v>
@@ -29888,27 +29856,27 @@
         <v>82</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>271</v>
+        <v>480</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>272</v>
+        <v>481</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP224" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29919,7 +29887,7 @@
         <v>80</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>82</v>
@@ -29928,22 +29896,22 @@
         <v>82</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>276</v>
+        <v>627</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>277</v>
+        <v>628</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>278</v>
+        <v>532</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>279</v>
+        <v>533</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>82</v>
@@ -29992,19 +29960,19 @@
         <v>82</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>280</v>
+        <v>626</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>82</v>
@@ -30013,1110 +29981,20 @@
         <v>82</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>281</v>
+        <v>535</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>282</v>
+        <v>536</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP225" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="226" hidden="true">
-      <c r="A226" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="B226" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C226" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="D226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E226" s="2"/>
-      <c r="F226" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J226" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K226" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="P226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q226" s="2"/>
-      <c r="R226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM226" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN226" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO226" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP226" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="227" hidden="true">
-      <c r="A227" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="B227" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E227" s="2"/>
-      <c r="F227" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J227" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="P227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q227" s="2"/>
-      <c r="R227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF227" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG227" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH227" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI227" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ227" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM227" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AO227" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP227" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="228" hidden="true">
-      <c r="A228" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="B228" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C228" s="2"/>
-      <c r="D228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E228" s="2"/>
-      <c r="F228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H228" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J228" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K228" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q228" s="2"/>
-      <c r="R228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF228" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH228" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI228" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ228" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL228" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AO228" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP228" t="s" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="229" hidden="true">
-      <c r="A229" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="B229" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E229" s="2"/>
-      <c r="F229" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q229" s="2"/>
-      <c r="R229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN229" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO229" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP229" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="230" hidden="true">
-      <c r="A230" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="B230" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E230" s="2"/>
-      <c r="F230" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O230" s="2"/>
-      <c r="P230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q230" s="2"/>
-      <c r="R230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ230" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN230" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO230" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP230" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="231" hidden="true">
-      <c r="A231" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="B231" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K231" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q231" s="2"/>
-      <c r="R231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S231" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="T231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U231" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="V231" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="W231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AG231" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH231" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO231" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP231" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="232" hidden="true">
-      <c r="A232" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K232" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q232" s="2"/>
-      <c r="R232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X232" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z232" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AA232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF232" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AG232" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH232" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI232" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AJ232" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM232" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN232" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AO232" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP232" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q233" s="2"/>
-      <c r="R233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AO233" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP233" t="s" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="234" hidden="true">
-      <c r="A234" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C234" s="2"/>
-      <c r="D234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q234" s="2"/>
-      <c r="R234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AN234" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AO234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP234" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP234">
+  <autoFilter ref="A1:AP225">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -31126,7 +30004,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI233">
+  <conditionalFormatting sqref="A2:AI224">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-sex-assigned-at-birth</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-sex-assigned-at-birth</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-patient-sex</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-patient-sex</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-biological-gender</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-biological-gender</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2727,7 +2727,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.8984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.21484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-sex-assigned-at-birth</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-sex-assigned-at-birth</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-patient-sex</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-snomed-patient-sex</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-biological-gender</t>
+    <t>http://fhir.org/de/ValueSet/vs-biological-gender</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2727,7 +2727,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-sex-assigned-at-birth</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-sex-assigned-at-birth</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-snomed-patient-sex</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-snomed-patient-sex</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-biological-gender</t>
+    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4577,7 +4577,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -6029,7 +6029,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7481,7 +7481,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8933,7 +8933,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -10385,7 +10385,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>
@@ -11837,7 +11837,7 @@
         <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2094,7 +2094,7 @@
     <t>Observation.component:male.code.coding:MaleUMLSCode.system</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Observation.component:male.code.coding:MaleUMLSCode.version</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2094,7 +2094,7 @@
     <t>Observation.component:male.code.coding:MaleUMLSCode.system</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Observation.component:male.code.coding:MaleUMLSCode.version</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-cde-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
